--- a/reports/OSEignir.xlsx
+++ b/reports/OSEignir.xlsx
@@ -49,11 +49,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -420,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,51 +430,37 @@
     <col width="13" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="13" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="13" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="13" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Clock In</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Clock Out</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Hours Worked</t>
-        </is>
-      </c>
-    </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>Total Hours:</t>
+          <t>Overall Total Hours: 0.0</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Task Name</t>
+        </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
